--- a/True.xlsx
+++ b/True.xlsx
@@ -1481,7 +1481,7 @@
     <t>C1041001435728</t>
   </si>
   <si>
-    <t>number</t>
+    <t>會員編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
